--- a/biology/Zoologie/Drongo_d'Aldabra/Drongo_d'Aldabra.xlsx
+++ b/biology/Zoologie/Drongo_d'Aldabra/Drongo_d'Aldabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Drongo_d%27Aldabra</t>
+          <t>Drongo_d'Aldabra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicrurus aldabranus
 Le Drongo d'Aldabra (Dicrurus aldabranus) est une espèce de passereau de la famille des Dicruridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Drongo_d%27Aldabra</t>
+          <t>Drongo_d'Aldabra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aspect est typique des dicées, avec un plumage entièrement noir, un gros bec et un œil rouge. La queue est longue et fourchue. Les juvéniles ont le dos gris, le dessous légèrement marbré et l'œil brun. Son appel est un petit rire dur.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Drongo_d%27Aldabra</t>
+          <t>Drongo_d'Aldabra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de l'atoll d'Aldabra aux Seychelles.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Drongo_d%27Aldabra</t>
+          <t>Drongo_d'Aldabra</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit dans les broussailles mixtes, les mangroves ainsi que dans les forêts côtières de Casuarina[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit dans les broussailles mixtes, les mangroves ainsi que dans les forêts côtières de Casuarina.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Drongo_d%27Aldabra</t>
+          <t>Drongo_d'Aldabra</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il construit son nid dans des arbres de grande taille : des Casuarina, des Rhizophora mucronata dans les mangroves et des Ficus dans les zones de broussailles. Le nid est en forme de coupe, il est fait de fibre de plantes liés par des toiles d'araignées. La femelle pond entre 1 et 3 œufs. Ils couvés pendant 16 à 18 jours[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il construit son nid dans des arbres de grande taille : des Casuarina, des Rhizophora mucronata dans les mangroves et des Ficus dans les zones de broussailles. Le nid est en forme de coupe, il est fait de fibre de plantes liés par des toiles d'araignées. La femelle pond entre 1 et 3 œufs. Ils couvés pendant 16 à 18 jours.
 </t>
         </is>
       </c>
